--- a/Расчеты/Расчет силовой части_JCM38x12_KUBO_DPAK_v2.xlsx
+++ b/Расчеты/Расчет силовой части_JCM38x12_KUBO_DPAK_v2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Diakont\ElectroDrive\Регион рулевая машинка\Hardware\Расчеты\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20370" windowHeight="8220" activeTab="3"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="27DVC" sheetId="5" r:id="rId5"/>
     <sheet name="15VDC" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
     <customWorkbookView name="Tikhonov Eugene - Личное представление" guid="{816D1CF2-9F52-4523-8FA1-0974D3ADE14B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1200" windowHeight="625" activeSheetId="4"/>
     <customWorkbookView name="Eugene - Личное представление" guid="{950CAB42-9710-43B8-BF7F-ADDD586A9B87}" mergeInterval="0" personalView="1" yWindow="71" windowWidth="1593" windowHeight="766" activeSheetId="4"/>
@@ -28,7 +33,7 @@
     <author>Eugene</author>
   </authors>
   <commentList>
-    <comment ref="B29" authorId="0">
+    <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0">
+    <comment ref="A42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="0">
+    <comment ref="B78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B99" authorId="0">
+    <comment ref="B99" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +268,7 @@
     <author>Tikhonov Eugene</author>
   </authors>
   <commentList>
-    <comment ref="B25" authorId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +305,7 @@
     <author>Tikhonov Eugene</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0">
+    <comment ref="J10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="1">
+    <comment ref="K12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K14" authorId="1">
+    <comment ref="K14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="1">
+    <comment ref="J22" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0">
+    <comment ref="J32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J34" authorId="0">
+    <comment ref="J34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J42" authorId="1">
+    <comment ref="J42" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J45" authorId="1">
+    <comment ref="J45" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J46" authorId="0">
+    <comment ref="J46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -679,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J48" authorId="0">
+    <comment ref="J48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -710,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="318">
   <si>
     <t>F=</t>
   </si>
@@ -1703,17 +1708,23 @@
   <si>
     <t>Uнп=</t>
   </si>
+  <si>
+    <t>Tcase=</t>
+  </si>
+  <si>
+    <t>температура корпуса ключа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3041,7 +3052,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3061,7 +3072,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3473,7 +3484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3505,9 +3516,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3539,6 +3551,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3714,17 +3727,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -3732,17 +3745,17 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -3760,7 +3773,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -3777,7 +3790,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="9" t="s">
         <v>59</v>
@@ -3793,7 +3806,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>72</v>
       </c>
@@ -3811,7 +3824,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>228</v>
       </c>
@@ -3827,7 +3840,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3839,7 +3852,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -3854,7 +3867,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3867,7 +3880,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>207</v>
       </c>
@@ -3889,7 +3902,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>208</v>
       </c>
@@ -3913,7 +3926,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>213</v>
       </c>
@@ -3935,7 +3948,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>210</v>
       </c>
@@ -3957,7 +3970,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>133</v>
       </c>
@@ -3979,7 +3992,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>164</v>
       </c>
@@ -4000,7 +4013,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4012,7 +4025,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>219</v>
       </c>
@@ -4027,7 +4040,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4040,7 +4053,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>182</v>
       </c>
@@ -4062,13 +4075,13 @@
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>221</v>
       </c>
       <c r="B22" s="9">
-        <f>0.16*B24</f>
-        <v>0.16</v>
+        <f>0.141*B24</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>73</v>
@@ -4084,13 +4097,13 @@
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="9">
         <f>B22/B14</f>
-        <v>4.4077134986225897</v>
+        <v>3.884297520661157</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>211</v>
@@ -4106,7 +4119,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
@@ -4125,12 +4138,12 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>223</v>
       </c>
@@ -4145,7 +4158,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4158,7 +4171,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
@@ -4179,7 +4192,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>184</v>
       </c>
@@ -4201,7 +4214,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>185</v>
       </c>
@@ -4223,11 +4236,11 @@
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>48</v>
       </c>
@@ -4235,7 +4248,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="10"/>
@@ -4243,7 +4256,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>230</v>
       </c>
@@ -4260,7 +4273,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>231</v>
       </c>
@@ -4277,7 +4290,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -4295,7 +4308,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>8</v>
       </c>
@@ -4317,7 +4330,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>10</v>
       </c>
@@ -4337,7 +4350,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>233</v>
       </c>
@@ -4350,7 +4363,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>234</v>
       </c>
@@ -4363,7 +4376,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>70</v>
       </c>
@@ -4382,7 +4395,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>296</v>
       </c>
@@ -4401,7 +4414,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
@@ -4422,7 +4435,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>69</v>
       </c>
@@ -4444,7 +4457,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>283</v>
       </c>
@@ -4466,7 +4479,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -4483,13 +4496,13 @@
       <c r="J46" s="9"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>31</v>
       </c>
@@ -4504,7 +4517,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
@@ -4525,7 +4538,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>51</v>
       </c>
@@ -4543,7 +4556,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
@@ -4565,7 +4578,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -4587,7 +4600,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4600,7 +4613,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>32</v>
       </c>
@@ -4615,7 +4628,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>18</v>
       </c>
@@ -4634,7 +4647,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>19</v>
       </c>
@@ -4653,7 +4666,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>21</v>
       </c>
@@ -4672,7 +4685,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>5</v>
       </c>
@@ -4691,7 +4704,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -4706,35 +4719,35 @@
       <c r="J59" s="13"/>
       <c r="K59" s="14"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S63" s="2"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -4745,7 +4758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>235</v>
       </c>
@@ -4754,7 +4767,7 @@
       </c>
       <c r="F71">
         <f>B99</f>
-        <v>1.0665555359640138</v>
+        <v>0.87896197450418612</v>
       </c>
       <c r="G71" t="s">
         <v>4</v>
@@ -4764,101 +4777,101 @@
       </c>
       <c r="J71" s="20">
         <f>F71*B58</f>
-        <v>2.1331110719280275</v>
+        <v>1.7579239490083722</v>
       </c>
       <c r="K71" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>226</v>
       </c>
       <c r="B75">
         <f>SQRT(2/3)*B22/B14</f>
-        <v>3.5988830013343303</v>
+        <v>3.1715156449258775</v>
       </c>
       <c r="C75" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>236</v>
       </c>
       <c r="B80">
         <f>SQRT(3/2)*B75</f>
-        <v>4.4077134986225897</v>
+        <v>3.8842975206611561</v>
       </c>
       <c r="C80" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>25</v>
       </c>
       <c r="B87">
         <f>B36*B75^2</f>
-        <v>0.58283814857819383</v>
+        <v>0.45263301687043223</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="45">
+    <row r="89" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B89" s="23"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>26</v>
       </c>
       <c r="B93">
         <f>B28*(B80*B45+0.5*B52)*B46</f>
-        <v>0.48371738738581999</v>
+        <v>0.42632895763375384</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B99" s="2">
         <f>(B87+B93)*B57</f>
-        <v>1.0665555359640138</v>
+        <v>0.87896197450418612</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -4888,31 +4901,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -4924,7 +4937,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4934,7 +4947,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>48</v>
       </c>
@@ -4946,7 +4959,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4956,12 +4969,12 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>62</v>
@@ -4974,7 +4987,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>65</v>
       </c>
@@ -4992,7 +5005,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -5010,7 +5023,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
@@ -5026,13 +5039,13 @@
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="9">
         <f>'Потери в MOSFET'!F71</f>
-        <v>1.0665555359640138</v>
+        <v>0.87896197450418612</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>4</v>
@@ -5045,7 +5058,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5055,7 +5068,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5065,7 +5078,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5075,7 +5088,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5085,7 +5098,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
@@ -5097,7 +5110,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5107,7 +5120,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -5125,7 +5138,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>262</v>
       </c>
@@ -5137,12 +5150,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -5152,43 +5165,58 @@
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <f>B11*B8+B18</f>
-        <v>116.12644322976885</v>
-      </c>
-      <c r="C25" t="s">
+        <v>104.49564241925954</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="H25" t="s">
+      <c r="E26" s="19"/>
+      <c r="H26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27">
+        <f>B26-B11*B7</f>
+        <v>102.73771847025117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -5206,7 +5234,7 @@
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="B26">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>$B$9-25</formula>
     </cfRule>
@@ -5222,7 +5250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5232,7 +5260,7 @@
       <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -5240,12 +5268,12 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -5253,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -5261,12 +5289,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -5274,7 +5302,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -5305,7 +5333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -5333,7 +5361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -5361,7 +5389,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -5377,7 +5405,7 @@
       </c>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -5404,7 +5432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>118</v>
       </c>
@@ -5422,7 +5450,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -5436,7 +5464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -5454,7 +5482,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -5469,7 +5497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -5497,7 +5525,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -5520,7 +5548,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>125</v>
       </c>
@@ -5535,7 +5563,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>126</v>
       </c>
@@ -5546,7 +5574,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -5563,7 +5591,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -5578,7 +5606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -5604,7 +5632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -5619,7 +5647,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>106</v>
       </c>
@@ -5633,7 +5661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -5660,7 +5688,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>166</v>
       </c>
@@ -5675,7 +5703,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -5703,10 +5731,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -5724,7 +5752,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>197</v>
       </c>
@@ -5751,7 +5779,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -5778,7 +5806,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -5792,7 +5820,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>196</v>
       </c>
@@ -5806,12 +5834,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J40" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>284</v>
       </c>
@@ -5819,7 +5847,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>282</v>
       </c>
@@ -5837,7 +5865,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>283</v>
       </c>
@@ -5849,7 +5877,7 @@
       </c>
       <c r="K43" s="35"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>287</v>
       </c>
@@ -5863,7 +5891,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>286</v>
       </c>
@@ -5887,7 +5915,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>285</v>
       </c>
@@ -5911,10 +5939,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K47" s="29"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>188</v>
       </c>
@@ -5926,7 +5954,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="10:10">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="3" t="s">
         <v>191</v>
       </c>
@@ -5955,32 +5983,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -5995,7 +6024,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -6010,13 +6039,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
       <c r="B9">
         <f>'Потери в MOSFET'!B75</f>
-        <v>3.5988830013343303</v>
+        <v>3.1715156449258775</v>
       </c>
       <c r="C9" t="s">
         <v>206</v>
@@ -6025,13 +6054,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>138</v>
       </c>
       <c r="B11">
-        <f>0.056</f>
-        <v>5.6000000000000001E-2</v>
+        <f>0.1/2</f>
+        <v>0.05</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
@@ -6040,28 +6069,28 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>148</v>
       </c>
       <c r="B19" s="36">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -6070,13 +6099,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="30">
         <f>B19*B11</f>
-        <v>1.008</v>
+        <v>0.2</v>
       </c>
       <c r="C20" t="s">
         <v>142</v>
@@ -6085,13 +6114,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>141</v>
       </c>
       <c r="B22" s="30">
         <f>B7^2*B11</f>
-        <v>23.600460077863538</v>
+        <v>21.071839355235301</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
@@ -6100,13 +6129,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>243</v>
       </c>
       <c r="B23">
         <f>B19^2*B11</f>
-        <v>18.144000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
@@ -6115,7 +6144,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>244</v>
       </c>
@@ -6129,7 +6158,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>245</v>
       </c>
@@ -6143,7 +6172,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -6155,13 +6184,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>147</v>
       </c>
       <c r="B29">
         <f>B20*B27</f>
-        <v>2.3917090909090906</v>
+        <v>0.47454545454545455</v>
       </c>
       <c r="C29" t="s">
         <v>142</v>
@@ -6170,12 +6199,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>246</v>
       </c>
@@ -6189,7 +6218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -6203,7 +6232,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -6218,7 +6247,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -6233,7 +6262,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>177</v>
       </c>
@@ -6248,7 +6277,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>302</v>
       </c>
@@ -6263,28 +6292,28 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
       <c r="B44" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -6295,7 +6324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -6306,7 +6335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>309</v>
       </c>
@@ -6317,7 +6346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>310</v>
       </c>
@@ -6331,7 +6360,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>313</v>
       </c>
@@ -6345,7 +6374,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>302</v>
       </c>
@@ -6357,12 +6386,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -6377,7 +6406,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>314</v>
       </c>
@@ -6392,7 +6421,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>306</v>
       </c>
@@ -6432,21 +6461,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -6460,7 +6489,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -6474,7 +6503,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -6488,7 +6517,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -6507,26 +6536,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -6540,7 +6569,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -6554,7 +6583,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -6569,7 +6598,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>147</v>
       </c>
